--- a/DigKult/Excel/tavol.xlsx
+++ b/DigKult/Excel/tavol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Gyarmati Gábor 9B\html\html g\DigKult\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA80FA6-AEFD-4A36-9558-711C915D7986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10188FDD-CF14-4920-AA25-407CC521A545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BD2CD354-8B01-428E-B960-0750B747E748}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Rajtszám</t>
   </si>
@@ -97,18 +97,40 @@
   </si>
   <si>
     <t>Legjobb eredmény</t>
+  </si>
+  <si>
+    <t>Kalocsai Rozmáro</t>
+  </si>
+  <si>
+    <t>Legjobb ugrás</t>
+  </si>
+  <si>
+    <t>Csapatpontszám</t>
+  </si>
+  <si>
+    <t>Egyéni eredmények</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General\ &quot;cm &quot;"/>
+    <numFmt numFmtId="165" formatCode="General\ &quot; cm&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -132,13 +154,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -154,6 +326,1126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Dobogósok</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D41D97FD-8A17-45C1-8BCA-F7C8295CD6E5}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[KATEGÓRIA NEVE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="hu-HU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E4F30A9-9682-4F32-A1A9-4B16DBEAF409}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[KATEGÓRIA NEVE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="hu-HU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30F70ABA-2CCE-4755-99B1-94C993CEF7CB}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[KATEGÓRIA NEVE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="hu-HU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ug Imre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tóbiás Félix</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kozma Alfonz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General\ " cm"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5B4-4CA1-A53C-6CFECF246C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1198053792"/>
+        <c:axId val="1192905840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198053792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1192905840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1192905840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General\ &quot; cm&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198053792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B48C442-7B3D-4169-8492-DE442A37792B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Kép 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B3F233-3295-4D06-8ED0-4339DAE001B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="2333625"/>
+          <a:ext cx="1209674" cy="579100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3457050B-FBBD-4E9B-8074-79B09FEEFA09}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,381 +1756,617 @@
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>623</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <f ca="1">RANDBETWEEN(610,690)</f>
+        <v>669</v>
+      </c>
+      <c r="E2" s="7">
         <v>640</v>
       </c>
-      <c r="E2">
-        <v>640</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>698</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>627</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>599</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>661</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <f>MAX(E2:J2)</f>
         <v>698</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="L2" s="8">
+        <f>MATCH(K2,E2:J2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>534</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D10" ca="1" si="0">RANDBETWEEN(610,690)</f>
         <v>678</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>656</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>608</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>662</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>622</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>552</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>605</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K10" si="1">MAX(E3:J3)</f>
         <v>662</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L10" si="2">MATCH(K3,E3:J3,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>245</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>633</v>
-      </c>
-      <c r="E4">
+        <v>685</v>
+      </c>
+      <c r="E4" s="7">
         <v>556</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>594</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>592</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>661</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>632</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <f t="shared" si="1"/>
         <v>661</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>758</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>639</v>
-      </c>
-      <c r="E5">
+        <v>658</v>
+      </c>
+      <c r="E5" s="7">
         <v>659</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>653</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>651</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>657</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>659</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="L5" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>232</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="E6">
+        <v>652</v>
+      </c>
+      <c r="E6" s="7">
         <v>591</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>639</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>567</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>591</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>616</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>648</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>553</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>663</v>
-      </c>
-      <c r="E7">
+        <v>648</v>
+      </c>
+      <c r="E7" s="7">
         <v>642</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>647</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>579</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>611</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <f t="shared" si="1"/>
         <v>647</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>632</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>669</v>
-      </c>
-      <c r="E8">
+        <v>689</v>
+      </c>
+      <c r="E8" s="7">
         <v>575</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>644</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>603</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>610</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>597</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>600</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <f t="shared" si="1"/>
         <v>644</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L8" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>632</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>654</v>
-      </c>
-      <c r="E9">
+        <v>675</v>
+      </c>
+      <c r="E9" s="7">
         <v>620</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>586</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>619</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>641</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>556</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <f t="shared" si="1"/>
         <v>641</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="L9" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>532</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
-      </c>
-      <c r="E10">
+        <v>674</v>
+      </c>
+      <c r="E10" s="12">
         <v>619</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>609</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>582</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>622</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="12">
         <v>585</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="12">
         <v>603</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="12">
         <f t="shared" si="1"/>
         <v>622</v>
       </c>
+      <c r="L10" s="13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <f>SUMIF($C$2:$C$10,"Kalocsai Rozmárok",$K$2:$K$10)</f>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f>SUMIF($C$2:$C$10,"Pécsi Kenguruk",$K$2:$K$10)</f>
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <f>SUMIF($C$2:$C$10,"Miskolci Párducok",$K$2:$K$10)</f>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>623</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f>MAX(E2:J2)</f>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>534</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D27" si="3">MAX(E3:J3)</f>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>245</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>758</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>553</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>632</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>632</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>532</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>622</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A17:D17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>